--- a/biology/Botanique/Indianthus_virgatus/Indianthus_virgatus.xlsx
+++ b/biology/Botanique/Indianthus_virgatus/Indianthus_virgatus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,12 +490,14 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Indianthus
 Indianthus virgatus, unique représentant du genre Indianthus, est une espèce de plantes monocotylédones de la famille des Marantaceae.
-C'est un géophyte rhizomateux qui pousse principalement dans le biome tropical humide[1].
-Cette plante est native de l'Inde, du Sri Lanka et des îles Andaman[2],[3].
+C'est un géophyte rhizomateux qui pousse principalement dans le biome tropical humide.
+Cette plante est native de l'Inde, du Sri Lanka et des îles Andaman,.
 </t>
         </is>
       </c>
@@ -514,11 +526,13 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le genre Indianthus a été créé en 2009 par Piyakaset Suksathan (d) et Finn Borchsenius (d)[4].
-L'espèce Indianthus virgatus (Roxb.) Suksathan &amp; Borchs.[4] a été initialement classée dans le genre Phrynium sous le basionyme Phrynium virgatum Roxb.[4].
-Indianthus virgatus a pour synonymes[4] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le genre Indianthus a été créé en 2009 par Piyakaset Suksathan (d) et Finn Borchsenius (d).
+L'espèce Indianthus virgatus (Roxb.) Suksathan &amp; Borchs. a été initialement classée dans le genre Phrynium sous le basionyme Phrynium virgatum Roxb..
+Indianthus virgatus a pour synonymes :
 Arundastrum virgatum (Roxb.) Kuntze
 Clinogyne virgata (Roxb.) Benth. &amp; Hook.f.
 Donax virgata (Roxb.) K.Schum.
